--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme dos Anjos\OneDrive - T2C CONSULTORIA LTDA\Documentos\UiPath\prj_SmartBI_Franquias\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://t2cconsultoria365-my.sharepoint.com/personal/guilherme_anjos_t2cgroup_com_br/Documents/Documentos/UiPath/prj_SmartBI_Franquias/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3611B2D4-428E-4A5D-BE75-AE5B1B649804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{3611B2D4-428E-4A5D-BE75-AE5B1B649804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B924C18C-7192-4B2A-B927-CBCB8BE061B8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>Quantos dias devem ser subtraídos da data atual.</t>
+  </si>
+  <si>
+    <t>OrchestratorQueueName_02</t>
+  </si>
+  <si>
+    <t>FILA_SMART_BI_URLS_RELATORIOS</t>
   </si>
 </sst>
 </file>
@@ -565,18 +571,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5546875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -624,30 +630,38 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="43.2">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="30">
-      <c r="A5" t="s">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="28.8">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1640,6 +1654,7 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1655,12 +1670,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.44140625" customWidth="1"/>
+    <col min="4" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1697,7 +1712,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1822,7 +1837,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="28.8">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2814,16 +2829,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="4" width="68.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="2" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="4" max="4" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="26" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -272,6 +272,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -574,7 +578,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
